--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N2">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O2">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P2">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q2">
-        <v>1967.31030073295</v>
+        <v>2295.946151748039</v>
       </c>
       <c r="R2">
-        <v>17705.79270659655</v>
+        <v>20663.51536573235</v>
       </c>
       <c r="S2">
-        <v>0.07761856872430582</v>
+        <v>0.1005072955892949</v>
       </c>
       <c r="T2">
-        <v>0.07761856872430579</v>
+        <v>0.1005072955892949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q3">
-        <v>5506.43544689037</v>
+        <v>3117.689113799567</v>
       </c>
       <c r="R3">
-        <v>49557.91902201333</v>
+        <v>28059.2020241961</v>
       </c>
       <c r="S3">
-        <v>0.2172517665368697</v>
+        <v>0.136479900052363</v>
       </c>
       <c r="T3">
-        <v>0.2172517665368697</v>
+        <v>0.1364799000523631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N4">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q4">
-        <v>2171.201349513613</v>
+        <v>1504.985896069461</v>
       </c>
       <c r="R4">
-        <v>19540.81214562252</v>
+        <v>13544.87306462515</v>
       </c>
       <c r="S4">
-        <v>0.08566291809621557</v>
+        <v>0.06588223430188399</v>
       </c>
       <c r="T4">
-        <v>0.08566291809621554</v>
+        <v>0.06588223430188402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N5">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q5">
-        <v>11.38556167401467</v>
+        <v>6.154879749006222</v>
       </c>
       <c r="R5">
-        <v>102.470055066132</v>
+        <v>55.393917741056</v>
       </c>
       <c r="S5">
-        <v>0.0004492077334877386</v>
+        <v>0.0002694359002187177</v>
       </c>
       <c r="T5">
-        <v>0.0004492077334877385</v>
+        <v>0.0002694359002187178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N6">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O6">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P6">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q6">
-        <v>377.1331461963167</v>
+        <v>777.3583753916862</v>
       </c>
       <c r="R6">
-        <v>3394.19831576685</v>
+        <v>6996.225378525175</v>
       </c>
       <c r="S6">
-        <v>0.01487947021644047</v>
+        <v>0.03402962563160341</v>
       </c>
       <c r="T6">
-        <v>0.01487947021644047</v>
+        <v>0.03402962563160342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q7">
         <v>1055.583007743616</v>
@@ -883,10 +883,10 @@
         <v>9500.247069692548</v>
       </c>
       <c r="S7">
-        <v>0.0416471373124169</v>
+        <v>0.04620918190853439</v>
       </c>
       <c r="T7">
-        <v>0.04164713731241688</v>
+        <v>0.0462091819085344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N8">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q8">
-        <v>416.2190355342976</v>
+        <v>509.5561105669806</v>
       </c>
       <c r="R8">
-        <v>3745.971319808678</v>
+        <v>4586.004995102826</v>
       </c>
       <c r="S8">
-        <v>0.01642157101599426</v>
+        <v>0.02230631871966799</v>
       </c>
       <c r="T8">
-        <v>0.01642157101599425</v>
+        <v>0.02230631871966799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N9">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q9">
-        <v>2.182610792884889</v>
+        <v>2.083910948336444</v>
       </c>
       <c r="R9">
-        <v>19.643497135964</v>
+        <v>18.755198535028</v>
       </c>
       <c r="S9">
-        <v>8.611306806192738E-05</v>
+        <v>9.122524650970303E-05</v>
       </c>
       <c r="T9">
-        <v>8.611306806192736E-05</v>
+        <v>9.122524650970304E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N10">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O10">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P10">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q10">
-        <v>308.9662837222251</v>
+        <v>528.6197116985337</v>
       </c>
       <c r="R10">
-        <v>2780.696553500025</v>
+        <v>4757.577405286804</v>
       </c>
       <c r="S10">
-        <v>0.01219000414812662</v>
+        <v>0.02314084656452473</v>
       </c>
       <c r="T10">
-        <v>0.01219000414812662</v>
+        <v>0.02314084656452474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q11">
-        <v>864.7862495043115</v>
+        <v>717.8181941451935</v>
       </c>
       <c r="R11">
-        <v>7783.076245538804</v>
+        <v>6460.363747306742</v>
       </c>
       <c r="S11">
-        <v>0.03411941213034734</v>
+        <v>0.03142319577634513</v>
       </c>
       <c r="T11">
-        <v>0.03411941213034734</v>
+        <v>0.03142319577634514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N12">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q12">
-        <v>340.9873937639497</v>
+        <v>346.5086539093643</v>
       </c>
       <c r="R12">
-        <v>3068.886543875548</v>
+        <v>3118.577885184279</v>
       </c>
       <c r="S12">
-        <v>0.0134533700388436</v>
+        <v>0.01516875632131075</v>
       </c>
       <c r="T12">
-        <v>0.0134533700388436</v>
+        <v>0.01516875632131076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N13">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q13">
-        <v>1.788103624120667</v>
+        <v>1.417102381073555</v>
       </c>
       <c r="R13">
-        <v>16.092932617086</v>
+        <v>12.753921429662</v>
       </c>
       <c r="S13">
-        <v>7.054812043798176E-05</v>
+        <v>6.203504720109127E-05</v>
       </c>
       <c r="T13">
-        <v>7.054812043798176E-05</v>
+        <v>6.203504720109129E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N14">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O14">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P14">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q14">
-        <v>2510.372074683825</v>
+        <v>3971.984653897987</v>
       </c>
       <c r="R14">
-        <v>22593.34867215442</v>
+        <v>35747.86188508188</v>
       </c>
       <c r="S14">
-        <v>0.09904461300783607</v>
+        <v>0.1738775255602243</v>
       </c>
       <c r="T14">
-        <v>0.09904461300783605</v>
+        <v>0.1738775255602243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>171.503098</v>
       </c>
       <c r="O15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P15">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q15">
-        <v>7026.447109931106</v>
+        <v>5393.59919491512</v>
       </c>
       <c r="R15">
-        <v>63238.02398937996</v>
+        <v>48542.39275423609</v>
       </c>
       <c r="S15">
-        <v>0.2772225447539706</v>
+        <v>0.2361100969902048</v>
       </c>
       <c r="T15">
-        <v>0.2772225447539706</v>
+        <v>0.2361100969902049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N16">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P16">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q16">
-        <v>2770.545772217091</v>
+        <v>2603.624165562234</v>
       </c>
       <c r="R16">
-        <v>24934.91194995382</v>
+        <v>23432.61749006011</v>
       </c>
       <c r="S16">
-        <v>0.1093095468185923</v>
+        <v>0.1139762025395761</v>
       </c>
       <c r="T16">
-        <v>0.1093095468185922</v>
+        <v>0.1139762025395761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N17">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P17">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q17">
-        <v>14.528463593358</v>
+        <v>10.64793609860022</v>
       </c>
       <c r="R17">
-        <v>130.756172340222</v>
+        <v>95.83142488740199</v>
       </c>
       <c r="S17">
-        <v>0.0005732082780532892</v>
+        <v>0.0004661238505367965</v>
       </c>
       <c r="T17">
-        <v>0.0005732082780532891</v>
+        <v>0.0004661238505367966</v>
       </c>
     </row>
   </sheetData>
